--- a/pred_ohlcv/54_21/2019-11-24 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 HDAC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2170197.51710398</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2059275.1869154</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2048717.2881154</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2036075.9126154</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2070689.0576154</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2119773.0200154</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2237527.9846154</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2811903.6122154</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2811903.6122154</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2958874.0869154</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2872630.3601154</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4034021.57400696</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4212950.78240696</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4212920.78240696</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4163832.07310696</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4096435.14720696</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4005824.79760696</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4759572.16950696</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5094506.2610521</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4990892.6490521</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5039890.2602521</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4925436.4731521</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>4911847.1769521</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4949521.8826521</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4939069.8646521</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 HDAC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2170197.51710398</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2059275.1869154</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2048717.2881154</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2036075.9126154</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2070689.0576154</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2119773.0200154</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2237527.9846154</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2811903.6122154</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2811903.6122154</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2958874.0869154</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2872630.3601154</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4212950.78240696</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4212920.78240696</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4213027.74780696</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4163832.07310696</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4096435.14720696</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4070824.79760696</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4759572.16950696</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5094506.2610521</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4990892.6490521</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5039890.2602521</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>4939069.8646521</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
